--- a/backend/batch_upload_template/template3.xlsx
+++ b/backend/batch_upload_template/template3.xlsx
@@ -31,7 +31,7 @@
     <t>订单金额</t>
   </si>
   <si>
-    <t xml:space="preserve"> cd</t>
+    <t>cd</t>
   </si>
   <si>
     <t>JD0128058750546</t>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
